--- a/Crédito disponível - Centralização - Campus Lagarto.xlsx
+++ b/Crédito disponível - Centralização - Campus Lagarto.xlsx
@@ -572,7 +572,7 @@
         <v>21</v>
       </c>
       <c r="K9" s="12">
-        <v>14916.62</v>
+        <v>18406.99</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>222395.94</v>
       </c>
       <c r="N11" s="12">
-        <v>50065.32</v>
+        <v>68001.31</v>
       </c>
       <c r="O11" s="13">
         <v>50065.32</v>
@@ -658,7 +658,7 @@
         <v>2604.06</v>
       </c>
       <c r="N12" s="12">
-        <v>578.68</v>
+        <v>868.02</v>
       </c>
       <c r="O12" s="13">
         <v>578.68</v>
@@ -755,10 +755,10 @@
         <v>11666.67</v>
       </c>
       <c r="N15" s="12">
-        <v>1676.92</v>
+        <v>2058.54</v>
       </c>
       <c r="O15" s="13">
-        <v>1676.92</v>
+        <v>1917.94</v>
       </c>
     </row>
     <row r="16">
@@ -813,10 +813,10 @@
         <v>1156941.13</v>
       </c>
       <c r="N17" s="12">
-        <v>474644.54</v>
+        <v>566485.69</v>
       </c>
       <c r="O17" s="13">
-        <v>457865.01</v>
+        <v>518528.56</v>
       </c>
     </row>
     <row r="18">
@@ -835,7 +835,7 @@
         <v>27</v>
       </c>
       <c r="K18" s="12">
-        <v>3490.37</v>
+        <v>0</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12">
@@ -874,7 +874,7 @@
         <v>16089.92</v>
       </c>
       <c r="O19" s="13">
-        <v>13650.3</v>
+        <v>16089.92</v>
       </c>
     </row>
     <row r="20">
@@ -997,10 +997,10 @@
         <v>485874.54</v>
       </c>
       <c r="N23" s="12">
-        <v>130625.44</v>
+        <v>183561.09</v>
       </c>
       <c r="O23" s="13">
-        <v>130625.44</v>
+        <v>165174.7</v>
       </c>
     </row>
     <row r="24">

--- a/Crédito disponível - Centralização - Campus Lagarto.xlsx
+++ b/Crédito disponível - Centralização - Campus Lagarto.xlsx
@@ -632,7 +632,7 @@
         <v>68001.31</v>
       </c>
       <c r="O11" s="13">
-        <v>50065.32</v>
+        <v>68001.31</v>
       </c>
     </row>
     <row r="12">
@@ -661,7 +661,7 @@
         <v>868.02</v>
       </c>
       <c r="O12" s="13">
-        <v>578.68</v>
+        <v>868.02</v>
       </c>
     </row>
     <row r="13">
@@ -758,7 +758,7 @@
         <v>2058.54</v>
       </c>
       <c r="O15" s="13">
-        <v>1917.94</v>
+        <v>2058.54</v>
       </c>
     </row>
     <row r="16">
@@ -997,10 +997,10 @@
         <v>485874.54</v>
       </c>
       <c r="N23" s="12">
-        <v>183561.09</v>
+        <v>192424.74</v>
       </c>
       <c r="O23" s="13">
-        <v>165174.7</v>
+        <v>191833.83</v>
       </c>
     </row>
     <row r="24">

--- a/Crédito disponível - Centralização - Campus Lagarto.xlsx
+++ b/Crédito disponível - Centralização - Campus Lagarto.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>Crédito disponível - Centralização - Campus Lagarto</t>
   </si>
@@ -109,6 +109,12 @@
     <t xml:space="preserve">DEM.APL.REC.TIT.TN,EX.RF.DIV.PUB.</t>
   </si>
   <si>
+    <t xml:space="preserve">339037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCACAO DE MAO-DE-OBRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">158394</t>
   </si>
   <si>
@@ -121,10 +127,10 @@
     <t xml:space="preserve">DIARIAS - PESSOAL CIVIL</t>
   </si>
   <si>
-    <t xml:space="preserve">339037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCACAO DE MAO-DE-OBRA</t>
+    <t xml:space="preserve">339033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSAGENS E DESPESAS COM LOCOMOCAO</t>
   </si>
   <si>
     <t xml:space="preserve">339040</t>
@@ -393,7 +399,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -572,7 +578,7 @@
         <v>21</v>
       </c>
       <c r="K9" s="12">
-        <v>18406.99</v>
+        <v>918.77</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -603,8 +609,12 @@
       <c r="M10" s="12">
         <v>3348.75</v>
       </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
+      <c r="N10" s="12">
+        <v>598.75</v>
+      </c>
+      <c r="O10" s="13">
+        <v>598.75</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="10"/>
@@ -629,10 +639,10 @@
         <v>222395.94</v>
       </c>
       <c r="N11" s="12">
-        <v>68001.31</v>
+        <v>84259.26</v>
       </c>
       <c r="O11" s="13">
-        <v>68001.31</v>
+        <v>84259.26</v>
       </c>
     </row>
     <row r="12">
@@ -658,10 +668,10 @@
         <v>2604.06</v>
       </c>
       <c r="N12" s="12">
-        <v>868.02</v>
+        <v>1157.36</v>
       </c>
       <c r="O12" s="13">
-        <v>868.02</v>
+        <v>1157.36</v>
       </c>
     </row>
     <row r="13">
@@ -688,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="K13" s="12">
-        <v>346032</v>
+        <v>87847.03</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
@@ -700,32 +710,20 @@
     <row r="14">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="11">
-        <v>3</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="K14" s="12">
-        <v>9314.99</v>
+        <v>177483.18</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -735,31 +733,37 @@
     <row r="15">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="I15" s="11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K15" s="12">
-        <v>0</v>
+        <v>5315.72</v>
       </c>
       <c r="L15" s="12"/>
-      <c r="M15" s="12">
-        <v>11666.67</v>
-      </c>
-      <c r="N15" s="12">
-        <v>2058.54</v>
-      </c>
-      <c r="O15" s="13">
-        <v>2058.54</v>
-      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="10"/>
@@ -771,23 +775,23 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K16" s="12">
         <v>0</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12">
-        <v>21766.18</v>
+        <v>17666.67</v>
       </c>
       <c r="N16" s="12">
-        <v>8684.72</v>
+        <v>8088</v>
       </c>
       <c r="O16" s="13">
-        <v>8684.72</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="17">
@@ -800,23 +804,23 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K17" s="12">
         <v>0</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12">
-        <v>1156941.13</v>
+        <v>21766.18</v>
       </c>
       <c r="N17" s="12">
-        <v>566485.69</v>
+        <v>13037.56</v>
       </c>
       <c r="O17" s="13">
-        <v>518528.56</v>
+        <v>13037.56</v>
       </c>
     </row>
     <row r="18">
@@ -829,24 +833,20 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K18" s="12">
         <v>0</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12">
-        <v>180087.08</v>
-      </c>
-      <c r="N18" s="12">
-        <v>80856.98</v>
-      </c>
-      <c r="O18" s="13">
-        <v>80856.98</v>
-      </c>
+        <v>8637.49</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="10"/>
@@ -858,23 +858,23 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K19" s="12">
         <v>0</v>
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="12">
-        <v>32595.42</v>
+        <v>1167938.13</v>
       </c>
       <c r="N19" s="12">
-        <v>16089.92</v>
+        <v>689701.36</v>
       </c>
       <c r="O19" s="13">
-        <v>16089.92</v>
+        <v>684467.22</v>
       </c>
     </row>
     <row r="20">
@@ -887,23 +887,23 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K20" s="12">
         <v>0</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12">
-        <v>852.48</v>
+        <v>175490.69</v>
       </c>
       <c r="N20" s="12">
-        <v>710.4</v>
+        <v>108862.68</v>
       </c>
       <c r="O20" s="13">
-        <v>710.4</v>
+        <v>106804.05</v>
       </c>
     </row>
     <row r="21">
@@ -926,118 +926,286 @@
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="12">
-        <v>54.11</v>
+        <v>33086.64</v>
       </c>
       <c r="N21" s="12">
-        <v>54.11</v>
+        <v>20786.9</v>
       </c>
       <c r="O21" s="13">
-        <v>54.11</v>
+        <v>20786.9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="11">
-        <v>3</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K22" s="12">
-        <v>313458.46</v>
+        <v>0</v>
       </c>
       <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="13"/>
+      <c r="M22" s="12">
+        <v>852.48</v>
+      </c>
+      <c r="N22" s="12">
+        <v>710.4</v>
+      </c>
+      <c r="O22" s="13">
+        <v>710.4</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K23" s="12">
         <v>0</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="12">
-        <v>485874.54</v>
+        <v>54.11</v>
       </c>
       <c r="N23" s="12">
-        <v>192424.74</v>
+        <v>54.11</v>
       </c>
       <c r="O23" s="13">
-        <v>191833.83</v>
+        <v>54.11</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="11">
         <v>3</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K24" s="12">
-        <v>89866</v>
-      </c>
-      <c r="L24" s="12">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="13"/>
     </row>
+    <row r="25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12">
+        <v>2333.33</v>
+      </c>
+      <c r="N25" s="12">
+        <v>281.2</v>
+      </c>
+      <c r="O25" s="13">
+        <v>281.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12">
+        <v>69228.8</v>
+      </c>
+      <c r="N26" s="12"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="11">
+        <v>3</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="12">
+        <v>11041.2</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12">
+        <v>788291.8</v>
+      </c>
+      <c r="N28" s="12">
+        <v>316686.85</v>
+      </c>
+      <c r="O28" s="13">
+        <v>312690.56</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="15">
+        <v>3</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="12">
+        <v>30466</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12">
+        <v>59400</v>
+      </c>
+      <c r="N30" s="12"/>
+      <c r="O30" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="41">
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A6:B7"/>
@@ -1045,28 +1213,40 @@
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="A8:A21"/>
-    <mergeCell ref="B8:B21"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="A8:A26"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="D8:D14"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="H9:H12"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F14:F21"/>
-    <mergeCell ref="G14:G21"/>
-    <mergeCell ref="H14:H21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="C15:C26"/>
+    <mergeCell ref="D15:D26"/>
+    <mergeCell ref="E15:E23"/>
+    <mergeCell ref="F15:F23"/>
+    <mergeCell ref="G15:G23"/>
+    <mergeCell ref="H15:H23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Crédito disponível - Centralização - Campus Lagarto.xlsx
+++ b/Crédito disponível - Centralização - Campus Lagarto.xlsx
@@ -1110,7 +1110,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="12">
-        <v>11041.2</v>
+        <v>11632.11</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
@@ -1137,13 +1137,13 @@
       </c>
       <c r="L28" s="12"/>
       <c r="M28" s="12">
-        <v>788291.8</v>
+        <v>787700.89</v>
       </c>
       <c r="N28" s="12">
-        <v>316686.85</v>
+        <v>316095.94</v>
       </c>
       <c r="O28" s="13">
-        <v>312690.56</v>
+        <v>315859.42</v>
       </c>
     </row>
     <row r="29">

--- a/Crédito disponível - Centralização - Campus Lagarto.xlsx
+++ b/Crédito disponível - Centralização - Campus Lagarto.xlsx
@@ -871,7 +871,7 @@
         <v>1167938.13</v>
       </c>
       <c r="N19" s="12">
-        <v>689701.36</v>
+        <v>754857.45</v>
       </c>
       <c r="O19" s="13">
         <v>684467.22</v>
@@ -1110,7 +1110,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="12">
-        <v>11632.11</v>
+        <v>12813.93</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
@@ -1137,13 +1137,13 @@
       </c>
       <c r="L28" s="12"/>
       <c r="M28" s="12">
-        <v>787700.89</v>
+        <v>786519.07</v>
       </c>
       <c r="N28" s="12">
-        <v>316095.94</v>
+        <v>336723.21</v>
       </c>
       <c r="O28" s="13">
-        <v>315859.42</v>
+        <v>313936.69</v>
       </c>
     </row>
     <row r="29">
